--- a/v5/other_exp/denoise/(orth)denoise_classification.xlsx
+++ b/v5/other_exp/denoise/(orth)denoise_classification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\analysis\analysis_data\(orth)_denoise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6B4444-0B4E-48FC-A1A8-758501E679A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A8D080-3E96-4517-9D35-7520F3EE0BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6560" yWindow="5110" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
   <si>
     <t>dataname:task_type</t>
   </si>
@@ -40,13 +40,16 @@
     <t>orth-denoise-after-projection</t>
   </si>
   <si>
+    <t>orth-denoise-after-encoder-phase1</t>
+  </si>
+  <si>
     <t>adult:classification</t>
   </si>
   <si>
     <t>AutoInt</t>
   </si>
   <si>
-    <t>0.8538,(0.00%:4)</t>
+    <t>0.8538,(0.00%:5)</t>
   </si>
   <si>
     <t>0.8560,(0.26%:2)</t>
@@ -55,7 +58,10 @@
     <t>0.8570,(0.38%:1)</t>
   </si>
   <si>
-    <t>0.8546,(0.10%:3)</t>
+    <t>0.8546,(0.10%:4)</t>
+  </si>
+  <si>
+    <t>0.8554,(0.19%:3)</t>
   </si>
   <si>
     <t>-</t>
@@ -76,10 +82,13 @@
     <t>0.8573,(0.06%:3)</t>
   </si>
   <si>
+    <t>0.8564,(-0.04%:5)</t>
+  </si>
+  <si>
     <t>FTTransformer</t>
   </si>
   <si>
-    <t>0.8601,(0.00%:4)</t>
+    <t>0.8601,(0.00%:5)</t>
   </si>
   <si>
     <t>0.8612,(0.13%:2)</t>
@@ -91,6 +100,9 @@
     <t>0.8616,(0.18%:1)</t>
   </si>
   <si>
+    <t>0.8607,(0.07%:4)</t>
+  </si>
+  <si>
     <t>MLP</t>
   </si>
   <si>
@@ -106,51 +118,63 @@
     <t>0.8559,(-0.05%:3)</t>
   </si>
   <si>
+    <t>0.8545,(-0.22%:5)</t>
+  </si>
+  <si>
     <t>ResNet</t>
   </si>
   <si>
-    <t>0.8515,(0.00%:4)</t>
+    <t>0.8515,(0.00%:5)</t>
   </si>
   <si>
     <t>0.8534,(0.22%:1)</t>
   </si>
   <si>
-    <t>0.8523,(0.10%:2)</t>
-  </si>
-  <si>
-    <t>0.8519,(0.04%:3)</t>
+    <t>0.8523,(0.10%:3)</t>
+  </si>
+  <si>
+    <t>0.8519,(0.04%:4)</t>
+  </si>
+  <si>
+    <t>0.8524,(0.11%:2)</t>
   </si>
   <si>
     <t>SNN</t>
   </si>
   <si>
-    <t>0.8469,(0.00%:4)</t>
-  </si>
-  <si>
-    <t>0.8470,(0.01%:3)</t>
+    <t>0.8469,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>0.8470,(0.01%:4)</t>
   </si>
   <si>
     <t>0.8479,(0.12%:1)</t>
   </si>
   <si>
-    <t>0.8476,(0.09%:2)</t>
+    <t>0.8476,(0.09%:3)</t>
+  </si>
+  <si>
+    <t>0.8477,(0.10%:2)</t>
   </si>
   <si>
     <t>avg_rank</t>
   </si>
   <si>
+    <t>4.17</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
     <t>3.50</t>
   </si>
   <si>
-    <t>1.83</t>
-  </si>
-  <si>
-    <t>2.17</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
     <t>avg_percentage</t>
   </si>
   <si>
@@ -166,6 +190,9 @@
     <t>0.07%</t>
   </si>
   <si>
+    <t>0.04%</t>
+  </si>
+  <si>
     <t>higgs_small:classification</t>
   </si>
   <si>
@@ -181,40 +208,52 @@
     <t>0.7189,(0.09%:3)</t>
   </si>
   <si>
-    <t>0.7117,(0.00%:3)</t>
-  </si>
-  <si>
-    <t>0.7118,(0.01%:2)</t>
-  </si>
-  <si>
-    <t>0.7119,(0.02%:1)</t>
-  </si>
-  <si>
-    <t>0.7098,(-0.27%:4)</t>
-  </si>
-  <si>
-    <t>0.7229,(0.00%:4)</t>
-  </si>
-  <si>
-    <t>0.7244,(0.20%:2)</t>
-  </si>
-  <si>
-    <t>0.7246,(0.24%:1)</t>
-  </si>
-  <si>
-    <t>0.7243,(0.19%:3)</t>
-  </si>
-  <si>
-    <t>0.7121,(0.00%:4)</t>
+    <t>0.7167,(-0.22%:5)</t>
+  </si>
+  <si>
+    <t>0.7117,(0.00%:4)</t>
+  </si>
+  <si>
+    <t>0.7118,(0.01%:3)</t>
+  </si>
+  <si>
+    <t>0.7119,(0.02%:2)</t>
+  </si>
+  <si>
+    <t>0.7098,(-0.27%:5)</t>
+  </si>
+  <si>
+    <t>0.7136,(0.27%:1)</t>
+  </si>
+  <si>
+    <t>0.7229,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>0.7244,(0.20%:3)</t>
+  </si>
+  <si>
+    <t>0.7246,(0.24%:2)</t>
+  </si>
+  <si>
+    <t>0.7243,(0.19%:4)</t>
+  </si>
+  <si>
+    <t>0.7270,(0.57%:1)</t>
+  </si>
+  <si>
+    <t>0.7121,(0.00%:5)</t>
   </si>
   <si>
     <t>0.7133,(0.16%:1)</t>
   </si>
   <si>
-    <t>0.7122,(0.01%:3)</t>
-  </si>
-  <si>
-    <t>0.7123,(0.02%:2)</t>
+    <t>0.7122,(0.01%:4)</t>
+  </si>
+  <si>
+    <t>0.7123,(0.02%:3)</t>
+  </si>
+  <si>
+    <t>0.7124,(0.04%:2)</t>
   </si>
   <si>
     <t>0.7144,(0.00%:3)</t>
@@ -223,12 +262,15 @@
     <t>0.7159,(0.21%:1)</t>
   </si>
   <si>
-    <t>0.7140,(-0.06%:4)</t>
+    <t>0.7140,(-0.06%:5)</t>
   </si>
   <si>
     <t>0.7145,(0.02%:2)</t>
   </si>
   <si>
+    <t>0.7140,(-0.05%:4)</t>
+  </si>
+  <si>
     <t>0.7211,(0.00%:3)</t>
   </si>
   <si>
@@ -241,10 +283,10 @@
     <t>0.7220,(0.13%:1)</t>
   </si>
   <si>
-    <t>1.67</t>
-  </si>
-  <si>
-    <t>2.33</t>
+    <t>0.7030,(-2.50%:5)</t>
+  </si>
+  <si>
+    <t>4.00</t>
   </si>
   <si>
     <t>0.14%</t>
@@ -253,6 +295,9 @@
     <t>0.03%</t>
   </si>
   <si>
+    <t>-0.32%</t>
+  </si>
+  <si>
     <t>total_avg_rank</t>
   </si>
   <si>
@@ -263,6 +308,9 @@
   </si>
   <si>
     <t>0.05%</t>
+  </si>
+  <si>
+    <t>-0.14%</t>
   </si>
 </sst>
 </file>
@@ -648,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="B18:F19"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -662,9 +710,10 @@
     <col min="4" max="4" width="18.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,365 +732,422 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E16" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4.083333333333333</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1.75</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2.25</v>
-      </c>
-      <c r="F18" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>95</v>
+      </c>
+      <c r="G19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
